--- a/Syd_station_info.xlsx
+++ b/Syd_station_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3545500_ad_unsw_edu_au/Documents/PostDoc/Hackathon_25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EF1CB3E-D2A2-B649-AEAE-789A51C26C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{2EF1CB3E-D2A2-B649-AEAE-789A51C26C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42E74287-2780-D34D-A076-6BD539F84178}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{750A8E64-0CF6-A34B-94C4-C26B9CD084CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{750A8E64-0CF6-A34B-94C4-C26B9CD084CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,48 +535,48 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>-33.6004</v>
+        <v>-33.281399999999998</v>
       </c>
       <c r="E2">
-        <v>150.77610000000001</v>
+        <v>151.57660000000001</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>-33.281399999999998</v>
+        <v>-33.6004</v>
       </c>
       <c r="E3">
-        <v>151.57660000000001</v>
+        <v>150.77610000000001</v>
       </c>
       <c r="F3">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>19.600000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
